--- a/docs/PTA3a_ADDC_30_1d5/PTA3a_ADDC_30_1d5_08.11.2024_output.xlsx
+++ b/docs/PTA3a_ADDC_30_1d5/PTA3a_ADDC_30_1d5_08.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731700418.802302</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731700419.6301186</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700418.802302.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700419.6301186.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>2755.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>2754.5</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731700420.466237</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731700420.8502126</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700420.466237.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700420.8502126.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>2753.8</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>2753.7</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.1000000000003638</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731700421.1713245</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731700421.2390094</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700421.1713245.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700421.2390094.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>2754.55</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>2753.45</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>1.100000000000364</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731700421.589073</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731700422.7117414</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700421.589073.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700422.7117414.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>2749.6</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>2737.45</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-12.15000000000009</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.44</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731700422.9800231</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731700423.4607928</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700422.9800231.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700423.4607928.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>2742.25</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>2737.45</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>4.800000000000182</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731700423.7111893</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731700423.984458</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700423.7111893.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700423.984458.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>2736.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2738.9</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>2.400000000000091</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731700424.6018074</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731700425.6719737</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700424.6018074.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700425.6719737.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>2746.65</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2746.2</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.4500000000002728</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731700426.1905866</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731700426.9156482</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700426.1905866.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700426.9156482.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>2742.65</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>2743.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.8499999999999091</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731700427.853874</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731700429.381787</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700427.853874.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700429.381787.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>2745.7</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>2745.55</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.1499999999996362</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731700431.0346217</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731700431.983085</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700431.0346217.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700431.983085.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>2753</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>2749.9</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>3.099999999999909</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731700432.7071483</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731700433.005457</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700432.7071483.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700433.005457.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>2753.95</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>2750.35</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>3.599999999999909</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731700433.1021702</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731700433.251798</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700433.1021702.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700433.251798.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>2748.25</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>2750.45</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>2.199999999999818</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731700433.6916277</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731700434.9003956</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700433.6916277.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700434.9003956.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>2746.15</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>2744.45</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-1.700000000000273</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.06</v>
       </c>
     </row>
